--- a/relmon/Content/template/Data HR dit Gas dan Pertagas Nov 2012.xlsx
+++ b/relmon/Content/template/Data HR dit Gas dan Pertagas Nov 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="15480" windowHeight="11640" tabRatio="672"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="15480" windowHeight="11640" tabRatio="672" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Perusahaan" sheetId="17" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Tgl/ Lahir</t>
   </si>
@@ -111,58 +111,28 @@
     <t>CO-1</t>
   </si>
   <si>
+    <t>RO-1</t>
+  </si>
+  <si>
+    <t>749547</t>
+  </si>
+  <si>
+    <t>Direktorat Gas</t>
+  </si>
+  <si>
+    <t>Direktorat gas pusat</t>
+  </si>
+  <si>
+    <t>Tes Upload</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
     <t>Direktur Gas</t>
   </si>
   <si>
-    <t>RO-1</t>
-  </si>
-  <si>
-    <t>RO-2</t>
-  </si>
-  <si>
-    <t>Manager, HSE &amp; Quality Management</t>
-  </si>
-  <si>
-    <t>Senior Vice President, Gas &amp; Power</t>
-  </si>
-  <si>
-    <t>RO-3</t>
-  </si>
-  <si>
-    <t>Vice President, Technology</t>
-  </si>
-  <si>
-    <t>RO-4</t>
-  </si>
-  <si>
-    <t>RO-5</t>
-  </si>
-  <si>
-    <t>Manager, Asset Optimization</t>
-  </si>
-  <si>
-    <t>RO-6</t>
-  </si>
-  <si>
-    <t>Assistant LNG Production</t>
-  </si>
-  <si>
-    <t>Assistant Manager Asset LPG &amp; Gas Distb.</t>
-  </si>
-  <si>
-    <t>RO-7</t>
-  </si>
-  <si>
     <t>Hari Karyuliarto</t>
-  </si>
-  <si>
-    <t>749547</t>
-  </si>
-  <si>
-    <t>perusahaan yosef</t>
-  </si>
-  <si>
-    <t>Otong rhein Inc</t>
   </si>
 </sst>
 </file>
@@ -779,7 +749,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +776,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1 2" xfId="1"/>
@@ -1165,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,10 +1169,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,126 +1232,28 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 D2:D1048576">
       <formula1>Jabatan_Kode</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
@@ -1394,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,10 +1350,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="5">
         <v>22829</v>
@@ -1492,998 +1367,404 @@
         <v>43283</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(C3&lt;&gt;"", DATE(YEAR(C3)+56, MONTH(C3)-6, DAY(C3)), "")</f>
-        <v/>
-      </c>
-      <c r="E3" s="14" t="str">
-        <f t="shared" ref="E3" si="1">IF(C3&lt;&gt;"", DATE(YEAR(C3)+56, MONTH(C3), DAY(C3)), "")</f>
-        <v/>
-      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E4" s="14" t="str">
-        <f t="shared" ref="E4:E23" si="2">IF(C4&lt;&gt;"", DATE(YEAR(C4)+56, MONTH(C4), DAY(C4)), "")</f>
-        <v/>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E5" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="14" t="str">
-        <f t="shared" ref="E24:E56" si="3">IF(C24&lt;&gt;"", DATE(YEAR(C24)+56, MONTH(C24), DAY(C24)), "")</f>
-        <v/>
-      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E37" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E39" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E41" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E42" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E43" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E44" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E45" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E46" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E48" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E49" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E50" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E51" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E52" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E53" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E54" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E55" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E56" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E57" s="14" t="str">
-        <f t="shared" ref="E57:E101" si="4">IF(C57&lt;&gt;"", DATE(YEAR(C57)+56, MONTH(C57), DAY(C57)), "")</f>
-        <v/>
-      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E58" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E60" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E61" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E62" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E63" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E64" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E65" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E66" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D101" si="5">IF(C67&lt;&gt;"", DATE(YEAR(C67)+56, MONTH(C67)-6, DAY(C67)), "")</f>
-        <v/>
-      </c>
-      <c r="E67" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E68" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E69" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E70" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E71" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E72" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E73" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E74" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E75" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E76" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E77" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E78" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E79" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E80" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E81" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E82" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E83" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E84" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E85" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E86" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E87" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E88" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E89" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E90" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E91" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E92" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E93" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E94" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E95" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E96" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E97" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E98" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E99" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E100" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E101" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
